--- a/fast_sleep/scales_calib.xlsx
+++ b/fast_sleep/scales_calib.xlsx
@@ -2822,9 +2822,10 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0ADBC3A86B10A4085B52F181C274AA0" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f60a4376a33fe09dfddee3b7d8d4a7bb">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3073c576-dbcc-4dca-a8e5-ccf7a0688d93" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="906a0e747f0336b2cce67eb72cba36c9" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0ADBC3A86B10A4085B52F181C274AA0" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f18153fd1d4a92a787a9d9e562be6d1">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3073c576-dbcc-4dca-a8e5-ccf7a0688d93" xmlns:ns3="a95d4ba5-ac50-4ccb-8f38-68d250b34105" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0ab0e3833db82c031de4a3f0e602590a" ns2:_="" ns3:_="">
     <xsd:import namespace="3073c576-dbcc-4dca-a8e5-ccf7a0688d93"/>
+    <xsd:import namespace="a95d4ba5-ac50-4ccb-8f38-68d250b34105"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -2838,6 +2839,11 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2884,6 +2890,45 @@
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="f8778b73-eb36-4b15-bd63-2781cd04a85e" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a95d4ba5-ac50-4ccb-8f38-68d250b34105" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{8d9deb43-fa9b-48cb-ae85-674f49a44845}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a95d4ba5-ac50-4ccb-8f38-68d250b34105">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -2987,7 +3032,12 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <TaxCatchAll xmlns="a95d4ba5-ac50-4ccb-8f38-68d250b34105" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3073c576-dbcc-4dca-a8e5-ccf7a0688d93">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
 </p:properties>
 </file>
 
@@ -3000,21 +3050,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5126E7B0-293D-443B-A988-330F64E52AF1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3073c576-dbcc-4dca-a8e5-ccf7a0688d93"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E0E6BE-FE13-4391-AD44-2A7C1414EDBF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
